--- a/tests/A02_pixell_test_plan_chequing_account.xlsx
+++ b/tests/A02_pixell_test_plan_chequing_account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>#VALUE!</t>
   </si>
@@ -76,34 +76,84 @@
     <t>invalid overdraft limit type</t>
   </si>
   <si>
+    <t xml:space="preserve">        account = ChequingAccount(123,321,-50, date(2000,10,10), "aaa", 0.1)
+        self.assertEqual(-100, account._ChequingAccount__overdraft_limit)</t>
+  </si>
+  <si>
+    <t>default limit: -100</t>
+  </si>
+  <si>
     <t>overdraft rate has invalid type.</t>
   </si>
   <si>
     <t>invalid overdraft rate type</t>
   </si>
   <si>
+    <t xml:space="preserve">        account = ChequingAccount(123,321,-50, date(2000,10,10), -10.0, "aaa")
+        self.assertEqual(0.05, account._ChequingAccount__overdraft_rate)</t>
+  </si>
+  <si>
+    <t>default limit: 0.05</t>
+  </si>
+  <si>
     <t>date created has invalid type</t>
   </si>
   <si>
     <t>invalid date created type</t>
   </si>
   <si>
+    <t xml:space="preserve">        account = ChequingAccount(123,321,-50, "aaa", -10.0, 0.1)
+        self.assertEqual(date(2025, 10, 3), account._date_created)</t>
+  </si>
+  <si>
+    <t>today's date: date(2025, 10, 3)</t>
+  </si>
+  <si>
     <t>get_service_charges</t>
   </si>
   <si>
     <t>balance greater than overdraft limit</t>
   </si>
   <si>
+    <t>account = ChequingAccount(123,321, 50, date(2000,10,10), -10.0, 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        service_fee = account.get_service_charges()
+        self.assertEqual(0.50, service_fee)</t>
+  </si>
+  <si>
     <t>balance less than overdraft limit</t>
   </si>
   <si>
+    <t>account = ChequingAccount(123,321, -10, date(2000,10,10), -10.0, 0.1)</t>
+  </si>
+  <si>
     <t>balance equal to overdraft limit</t>
   </si>
   <si>
+    <t xml:space="preserve">        account = ChequingAccount(123,321, -20, date(2000,10,10), -10.0, 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        service_fee = account.get_service_charges()
+        self.assertEqual(1.5, service_fee)</t>
+  </si>
+  <si>
     <t>__str__</t>
   </si>
   <si>
     <t>appropriate value returned based on attribute values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        account = ChequingAccount(123,321,-50, date(2000,10,10), -10.0, 0.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        str_return = account.__str__()
+        expect = ("Account Number: 123 Balance: $-50.00 "
+                "Date Created: 2000-10-10 \nOverdraft limit: $-10.00 Overdraft rate: 10.00% Account Type: Chequing")
+        self.assertEqual(str_return, expect)</t>
+  </si>
+  <si>
+    <t>No Error</t>
   </si>
   <si>
     <t>Add more rows as necessary</t>
@@ -114,7 +164,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +175,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -175,7 +231,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -439,88 +502,91 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,13 +917,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="28" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="29" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="29" width="31.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="29" width="44.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="29" width="48.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="28" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="30" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="45.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="44.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="30" width="48.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -915,7 +981,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -936,7 +1002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="120" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="201" customFormat="1" s="16">
       <c r="A7" s="17"/>
       <c r="B7" s="18">
         <v>1</v>
@@ -957,7 +1023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="78.75" customFormat="1" s="16">
       <c r="A8" s="17"/>
       <c r="B8" s="21">
         <v>2</v>
@@ -971,10 +1037,14 @@
       <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="16">
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="79.5" customFormat="1" s="16">
       <c r="A9" s="17"/>
       <c r="B9" s="18">
         <v>3</v>
@@ -983,15 +1053,19 @@
         <v>11</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5" customFormat="1" s="16">
+        <v>21</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="72" customFormat="1" s="16">
       <c r="A10" s="17"/>
       <c r="B10" s="18">
         <v>4</v>
@@ -1000,75 +1074,103 @@
         <v>11</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="16">
+        <v>25</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="66.75" customFormat="1" s="16">
       <c r="A11" s="17"/>
       <c r="B11" s="21">
         <v>5</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="16">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="57.75" customFormat="1" s="16">
       <c r="A12" s="17"/>
       <c r="B12" s="18">
         <v>6</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5" customFormat="1" s="16">
+        <v>32</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="72" customFormat="1" s="16">
       <c r="A13" s="17"/>
       <c r="B13" s="18">
         <v>7</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="58.5" customFormat="1" s="16">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="104.25" customFormat="1" s="16">
       <c r="A14" s="17"/>
       <c r="B14" s="21">
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+        <v>38</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A15" s="17"/>
       <c r="B15" s="18">
         <v>9</v>
@@ -1079,7 +1181,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A16" s="17"/>
       <c r="B16" s="18">
         <v>10</v>
@@ -1090,7 +1192,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="31.149999999999995" customFormat="1" s="16">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5" customFormat="1" s="16">
       <c r="A17" s="17"/>
       <c r="B17" s="21">
         <v>11</v>
@@ -1238,11 +1340,11 @@
       <c r="B30" s="18">
         <v>24</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="1"/>
@@ -1255,14 +1357,14 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="1"/>
-      <c r="B32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
